--- a/pred_ohlcv/54_21/2020-01-24 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 QTUM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>8613.104300000003</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>8369.732800000003</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>8500.724800000004</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>8391.480700000004</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>8573.027500000004</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>8514.097500000003</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>8772.162500000004</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>8711.886501760004</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>8523.160301760005</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>8523.160301760005</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>4738.078301760004</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>4934.478301760004</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>5051.478301760004</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>5165.242601760004</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>5225.242601760004</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>7355.559801760004</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>7355.559801760004</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>7355.559801760004</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>7149.949501760004</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>7007.589501760004</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>6807.589501760004</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>7005.183001760004</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>12704.80335382</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>14368.06385382</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>14266.06385382</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>14066.42745382</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>14021.99315382</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>14561.28655382</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>14561.28655382</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>14561.28655382</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>14761.28655382</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>14761.28655382</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>14761.28655382</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>15634.77485382</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>15634.77485382</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>15208.77485382</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>15208.77485382</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>15208.77485382</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>15208.77485382</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>15149.78075382</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>15130.81665382</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>15130.81665382</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>14869.81665382</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>14429.30215382</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>14576.76705382</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>14695.48435382</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>14695.48435382</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>14694.48435382</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>16710.40935382</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>16710.40935382</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>14704.55035382</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>14704.55035382</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>14704.55035382</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>14478.63555382</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>14335.78125382</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>14455.31415382</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>14432.31415382</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>14472.81415382</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>14586.51415382</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>14586.51415382</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>14586.51415382</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>14586.51415382</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>14216.61105382</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>14216.61105382</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>14662.4725151</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>15406.0077151</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>12899.4543151</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>12906.3914151</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>15828.8336151</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>13238.9862151</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>13208.8962151</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>15515.2735151</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>15515.2735151</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>15691.7120151</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>16608.55989405001</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>15901.30189405001</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>15619.56539405001</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>15582.80039405001</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>16022.49239405001</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>16022.49239405001</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>14761.49519405001</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-28147.08380581</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-22449.17030581</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-17183.38730581</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-17183.38730581</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-21808.35360581</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-24982.30660581</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-25266.30660581</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-25207.61340581</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-25207.61340581</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-25544.82360581</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-42360.91338409999</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-45013.37528409999</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-44763.37528409999</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-45333.40648409999</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-40622.94668409999</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-40622.94668409999</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-40622.94668409999</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-40725.06418409999</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-40725.06418409999</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-40703.71268409999</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-40803.71268409999</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-40614.69978409999</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-40710.90998409999</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-40710.90998409999</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-40611.90998409999</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-53251.57038409999</v>
       </c>
       <c r="H551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-54785.35618409999</v>
       </c>
       <c r="H552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-54785.35618409999</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-54764.35618409999</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-54747.53118409999</v>
       </c>
       <c r="H555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-54677.64118409999</v>
       </c>
       <c r="H556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-54704.66248409999</v>
       </c>
       <c r="H557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-54579.2107841</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-54544.89096752</v>
       </c>
       <c r="H561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-54819.24156752</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-24 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 QTUM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>8613.104300000003</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>8369.732800000003</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>8500.724800000004</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>8391.480700000004</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>8573.027500000004</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>8514.097500000003</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>8772.162500000004</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>8711.886501760004</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>8523.160301760005</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>8523.160301760005</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>4738.078301760004</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>4934.478301760004</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>5260.060001760004</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>5165.242601760004</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>5225.242601760004</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>5228.556001760004</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>7355.559801760004</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>7355.559801760004</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>7355.559801760004</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>7007.589501760004</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>6807.589501760004</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>14561.28655382</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>14761.28655382</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>14761.28655382</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>14761.28655382</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>15634.77485382</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>15634.77485382</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>15208.77485382</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>15208.77485382</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>15208.77485382</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>15208.77485382</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>15149.78075382</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>15130.81665382</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>15130.81665382</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>14869.81665382</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>14429.30215382</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>14695.48435382</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>14694.48435382</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>16710.40935382</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>14704.55035382</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>14704.55035382</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>14704.55035382</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>14478.63555382</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>14335.78125382</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>14455.31415382</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>14432.31415382</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>14472.81415382</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>14586.51415382</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>14586.51415382</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-28147.08380581</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-22449.17030581</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-17183.38730581</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-17183.38730581</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-21808.35360581</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-24982.30660581</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-25266.30660581</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-25207.61340581</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-25207.61340581</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-25544.82360581</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-42360.91338409999</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-45013.37528409999</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-44763.37528409999</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-45333.40648409999</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-40622.94668409999</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-40622.94668409999</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-40622.94668409999</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-40725.06418409999</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-40725.06418409999</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-40703.71268409999</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-40803.71268409999</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-40614.69978409999</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-40710.90998409999</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-40710.90998409999</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-40611.90998409999</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-54764.35618409999</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-54747.53118409999</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-54677.64118409999</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-54544.89096752</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-54819.24156752</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
